--- a/medicine/Enfance/Susan_Straight/Susan_Straight.xlsx
+++ b/medicine/Enfance/Susan_Straight/Susan_Straight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Susan Straight, née le 19 octobre 1960 à Riverside en Californie, est une romancière et nouvelliste américaine, auteur d'ouvrages de littérature d'enfance et de jeunesse et de récits policiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle amorce des études supérieures à l'université de Californie du Sud et obtient, en 1984, une maîtrise en écriture de l'université du Massachusetts à Amherst.
 Elle devient professeur en écriture créative de l'université de Californie à Riverside.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Aquaboogie (1990)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aquaboogie (1990)
 I Been in Sorrow's Kitchen and Licked Out All the Pots (1992)
 Blacker Than A Thousand Midnights (1994)
 The Gettin Place (1996)
@@ -555,14 +574,82 @@
 A Million Nightingales (2006)
 The Friskative Dog (2007)
 Take One Candle Light a Room (2010)
-Between Heaven and Here (2012)
-Ouvrages de littérature d'enfance et de jeunesse
-Bear E. Bear (1995)
+Between Heaven and Here (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Susan_Straight</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susan_Straight</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bear E. Bear (1995)
 The Hallway Light At Night (1999)
 Where's Your Sun? (2005)
-The Friskative Dog (2007)
-Nouvelles
-Shape Fantasies (1998)
+The Friskative Dog (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Susan_Straight</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susan_Straight</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Shape Fantasies (1998)
 Mines (2003)
 Bridgework (2004)
 Poinciana (2005)
